--- a/relationships/phillips curve.xlsx
+++ b/relationships/phillips curve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\recovery\The-Labor-Market-of-Canada-\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86CFB5D-45BA-4F8F-8100-A8E80A5E2DF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E932986-07B7-464B-88A0-A036C964D711}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>inflation_in_percentage</c:v>
+                  <c:v>unemployment_rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -194,28 +194,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2F6109D-8759-4E0C-98C7-5B7FA2A47C14}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{6DC32488-75FC-41EE-BE9C-9FE15DEBD8D3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -226,29 +227,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{857EAB55-11BD-4207-BE86-A56D3D640379}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{6A1E387D-C08C-4FCC-A32F-F26E82742297}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -259,29 +260,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1F1C284-BCC4-4854-A11F-235DAF01A9E3}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{8F671762-9F65-408E-BBA4-50BEB60B73C7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -292,29 +293,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97842C0E-F850-43DE-8EE7-6989B8FF00A9}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{FC0BFD1B-CA8B-494C-8FD3-8F6D1010C911}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -325,29 +326,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF2CAB23-7E24-4FE9-AA27-179536C8D544}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{7FC101D3-9A0F-4264-8EBF-F8BDFB0DB6DD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -358,29 +359,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B5A73F4-C67A-47A9-9A4B-555A7198F12E}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{B3012CF2-BB04-4C61-9E61-AD02CA469281}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -391,29 +392,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91989DE2-010A-46C8-8AB2-B27B02CA932F}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{B164E447-C4AA-4676-B582-D080042EC560}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -424,29 +425,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08DC7A8A-1237-4509-BAD6-FFE97D82BA69}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{9B585ED8-79A1-448E-BF7F-42D5B58A1F69}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -457,29 +458,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BD43256-22C9-4DC1-974E-6FC184E152B8}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{E8533EF8-37A8-4812-9AA7-C95012C0F37E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -490,29 +491,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B056C859-2029-4287-BC11-1524E7541CBF}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{B600D701-83E1-48EA-BE1D-7B09C553857C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -523,29 +524,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD60887A-24C3-4DA2-9E33-44C0D7EAED86}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{DB9B4DDD-0E38-4B0B-984C-A525A36804BE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -556,29 +557,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86E8FD35-7109-4D04-97FB-E96EA126B979}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{44D0A041-8C1A-4AF9-9352-0C5F641AB0E5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -589,29 +590,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AA2078A-3984-4077-B773-C3365639DC1E}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{2446D49B-E324-4E69-96F7-264B92AF5236}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -622,29 +623,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37877B24-99B9-4D7D-9693-D780F90E2A97}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{C909EE67-20BB-4AE2-8787-35BA6663A183}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -655,29 +656,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{153F8F48-56DD-4877-BF6F-77E170A98567}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{548D78C0-D806-4B01-8904-90C041F00F71}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -688,29 +689,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{243953EF-5097-4A55-8726-2966DB8418F7}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{7992002E-C922-479E-8EE1-F6CAD7062434}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -721,29 +722,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9ACF4804-E077-465E-8070-4D603933BC46}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{8B260314-221C-49ED-B751-E2BAD8F835BA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -754,29 +755,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56F2B1AD-72CC-481D-8AB8-4E68F8C29FB1}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{B963217E-67F0-4A10-A554-B962F3C97BD8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -787,29 +788,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60C17EAF-329E-4161-AF26-3C95DE3E84F7}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{D39B91BD-7026-429C-8B23-6970148A7EA2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -820,29 +821,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D456F507-CC1F-43EF-8BD3-DBDFF0CBE23A}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{072F3F84-1A79-493A-8D29-9113892E8D14}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -853,29 +854,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C369A456-2AFE-4773-A69D-04AA2EEB22C8}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{A2572B93-B0CF-4981-8C17-2822FDFBDD82}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -886,29 +887,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2797B760-692E-4AA4-A8E6-2F27ABA7DFBF}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{38121820-9559-48DA-9D0C-D8990341B213}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -919,29 +920,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDE19C45-83A5-43DA-B46E-408E7B7D9B08}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{739FCDB4-27D1-4EC8-BF5B-4E5ECE6AEF2B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -952,29 +953,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCA6D328-A0A6-4F2A-BF0D-4DB4F97F7FA7}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{E52C84FB-5682-4D0E-9085-058F0ACF7FED}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -985,29 +986,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F6837B4-AFBD-4974-B0A6-3412FBB880F2}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{51D886F9-75CE-418B-939F-7BB688E9B405}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1018,29 +1019,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EC37587-4381-41C0-A096-CA22D183151F}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{0B82F442-72CC-46E4-B7E9-5129DE44895C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1051,29 +1052,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05D4FF38-C659-4DB5-8C02-96AE2D412125}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{CAA04650-9B66-4160-A154-919C3D371C60}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1084,29 +1085,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7E48ED3-DEB2-4B28-8A1E-4D5773820B43}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{AB1A075E-B91E-4616-828A-81E71D8B737F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1117,29 +1118,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41849F8F-5CE3-4855-AF1D-109E6F77233D}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{DF8AB0AE-20CF-4215-A5F6-476B760D3C94}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1150,29 +1151,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F743AAB-2627-4B5B-8CD1-9FE3E63C8193}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{013CAFE3-CF82-4CF6-8EB5-33F447E9D50E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1183,29 +1184,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27BFBD6A-84CE-4138-9BE1-A1E5B3F63C41}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{F6A6944C-92E1-43DA-B4E9-5E1BB3C27AA2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1216,29 +1217,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC292AAC-2654-4E63-8C54-0D2F6EB92655}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{F1457427-FD70-425B-9BDE-5E300B2C736B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1249,29 +1250,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F94041F-59D6-42A8-BD57-0286CB0C6290}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{5984EDFB-3555-4C8D-BE2F-BE5110384E78}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1282,29 +1283,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0FBD7F2-F216-4273-91B8-721B2B4E2D7D}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{6EA0E600-829C-487C-B98D-6C92E70D3D47}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1315,221 +1316,29 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81498943-1E3D-4F88-9F2D-ABF0706E2E3A}" type="CELLRANGE">
-                      <a:rPr lang="en-CA"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-CA"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-3749-4164-9986-FB2D6208323F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="35"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-3749-4164-9986-FB2D6208323F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="36"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-3749-4164-9986-FB2D6208323F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="37"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-3749-4164-9986-FB2D6208323F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="38"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-3749-4164-9986-FB2D6208323F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="39"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-3749-4164-9986-FB2D6208323F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="40"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-3749-4164-9986-FB2D6208323F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="41"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-3749-4164-9986-FB2D6208323F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="42"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-3749-4164-9986-FB2D6208323F}"/>
+                    <a:fld id="{6F850518-76F7-4FD9-8EF6-FFDA2A5EA0F5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-CA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-9CEE-4F59-857C-656710FF7CE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1592,228 +1401,228 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$44</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>4.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.6</c:v>
+                  <c:v>3.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>4.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9</c:v>
+                  <c:v>4.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8</c:v>
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>4.7699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.4</c:v>
+                  <c:v>5.62</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.3</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.5</c:v>
+                  <c:v>1.87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.5</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.6</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.4</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.7</c:v>
+                  <c:v>1.74</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.9</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.7</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.6</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.8</c:v>
+                  <c:v>2.23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.1</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.2</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.1</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.4</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.2</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.1</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.4</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.9</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$44</c:f>
+              <c:f>Sheet1!$C$2:$C$36</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>4.34</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.95</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.17</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.37</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7699999999999996</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.62</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.49</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.87</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.19</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.58</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.61</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.74</c:v>
+                  <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.74</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5099999999999998</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2799999999999998</c:v>
+                  <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.74</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.84</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.23</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.02</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.13</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.39</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.77</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.89</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.53</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.93</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.92</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.44</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,7 +1743,7 @@
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3749-4164-9986-FB2D6208323F}"/>
+              <c16:uniqueId val="{00000000-9CEE-4F59-857C-656710FF7CE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1946,16 +1755,78 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="689047568"/>
-        <c:axId val="689048528"/>
+        <c:axId val="497385848"/>
+        <c:axId val="497389048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="689047568"/>
+        <c:axId val="497385848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497389048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497389048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2007,69 +1878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689048528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="689048528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="689047568"/>
+        <c:crossAx val="497385848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2685,23 +2494,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F553596-97B2-4970-BA22-7DFBD3F1BFC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA0E6D9-399B-42C3-BC1D-93E8DEE1868C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2997,396 +2806,396 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1984</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>4.34</v>
+      </c>
+      <c r="C2">
         <v>11.5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1985</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="C3">
         <v>10.6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1986</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
+        <v>4.17</v>
+      </c>
+      <c r="C4">
         <v>9.6999999999999993</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4.17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1987</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
+        <v>4.37</v>
+      </c>
+      <c r="C5">
         <v>8.9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1988</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C6">
         <v>7.8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1989</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>7.6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1990</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="C8">
         <v>8.1999999999999993</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4.7699999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1991</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
+        <v>5.62</v>
+      </c>
+      <c r="C9">
         <v>10.4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5.62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1992</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="C10">
         <v>11.3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1993</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="C11">
         <v>11.5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.87</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1994</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C12">
         <v>10.5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1995</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
+        <v>2.19</v>
+      </c>
+      <c r="C13">
         <v>9.6</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2.19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1996</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="C14">
         <v>9.6999999999999993</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1997</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="C15">
         <v>9.1999999999999993</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.61</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1998</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C16">
         <v>8.4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1999</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="C17">
         <v>7.7</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.74</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="C18">
         <v>6.9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2.74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2001</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C19">
         <v>7.3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2002</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C20">
         <v>7.7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2003</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="C21">
         <v>7.6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2.74</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2004</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="C22">
         <v>7.3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2005</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="C23">
         <v>6.8</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2.23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2006</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="C24">
         <v>6.4</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2.02</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2007</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="C25">
         <v>6.1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2.13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2008</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="C26">
         <v>6.2</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2.39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2009</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C27">
         <v>8.4</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2010</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="C28">
         <v>8.1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.77</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2011</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="C29">
         <v>7.6</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2.89</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2012</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="C30">
         <v>7.4</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1.53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2013</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="C31">
         <v>7.2</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.93</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2014</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="C32">
         <v>7</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1.92</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2015</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C33">
         <v>7</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2016</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="C34">
         <v>7.1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.44</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2017</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C35">
         <v>6.4</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2018</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C36">
         <v>5.9</v>
-      </c>
-      <c r="C36" s="2">
-        <v>2.2400000000000002</v>
       </c>
     </row>
   </sheetData>
